--- a/MA_DATA.xlsx
+++ b/MA_DATA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilyfang/Desktop/clf/healthscore automation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilyfang/Desktop/clf/healthscore_automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCCA2F2-86EC-0145-849C-C2B00120FA52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5148E40-4F6D-7D4F-8EFC-504AD26AAFB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="1440" windowWidth="18740" windowHeight="15080" xr2:uid="{FDB530E0-6723-2945-9161-F3CD36E633EA}"/>
+    <workbookView xWindow="4320" yWindow="1400" windowWidth="18740" windowHeight="15080" xr2:uid="{FDB530E0-6723-2945-9161-F3CD36E633EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Life Expectancy</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>PLACES population</t>
   </si>
 </sst>
 </file>
@@ -95,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -118,13 +121,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -441,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7259E013-FDA3-134D-B0BE-F0840B6D52A8}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,79 +489,90 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+      <c r="A3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>5.8</v>
+        <v>88929</v>
       </c>
       <c r="C3">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>10.3</v>
+        <v>5.8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>4.5999999999999996</v>
+        <v>10.3</v>
       </c>
       <c r="C5">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>3.1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>7.7</v>
+        <v>3.1</v>
       </c>
       <c r="C7">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>3.4</v>
+        <v>7.7</v>
       </c>
       <c r="C8">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>3.4</v>
+      </c>
+      <c r="C9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>12</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1.1000000000000001</v>
       </c>
     </row>
